--- a/trunk/Documents/Thông tin bán hàng/ban hang.xlsx
+++ b/trunk/Documents/Thông tin bán hàng/ban hang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>THÔNG TIN BÁN HÀNG THÁNG 05 NĂM 2011</t>
   </si>
@@ -154,6 +154,42 @@
   </si>
   <si>
     <t>A405 cc Phạm Viết Chánh Q Bình Thạnh</t>
+  </si>
+  <si>
+    <t>Mã số</t>
+  </si>
+  <si>
+    <t>Mã mua hàng</t>
+  </si>
+  <si>
+    <t>M0001</t>
+  </si>
+  <si>
+    <t>B0001</t>
+  </si>
+  <si>
+    <t>B0002</t>
+  </si>
+  <si>
+    <t>B0003</t>
+  </si>
+  <si>
+    <t>B0004</t>
+  </si>
+  <si>
+    <t>B0005</t>
+  </si>
+  <si>
+    <t>B0006</t>
+  </si>
+  <si>
+    <t>B0007</t>
+  </si>
+  <si>
+    <t>Giá mua</t>
+  </si>
+  <si>
+    <t>Lợi nhuận</t>
   </si>
 </sst>
 </file>
@@ -165,7 +201,7 @@
     <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +248,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -270,21 +325,11 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,6 +343,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,313 +669,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="D1" s="20" t="s">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="27">
+        <v>937186457</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="28">
+        <v>10111</v>
+      </c>
+      <c r="I3" s="29">
+        <v>40852</v>
+      </c>
+      <c r="J3" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="K3" s="30">
+        <v>290</v>
+      </c>
+      <c r="L3" s="30">
+        <v>243.55500000000001</v>
+      </c>
+      <c r="M3" s="30">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="27">
+        <v>977817969</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="28">
+        <v>10111</v>
+      </c>
+      <c r="I4" s="29">
+        <v>40882</v>
+      </c>
+      <c r="J4" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="10">
-        <v>937186457</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="K4" s="30">
+        <v>290</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12">
+      <c r="H5" s="28">
         <v>10111</v>
       </c>
-      <c r="H3" s="13">
-        <v>40852</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="I5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="27">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K5" s="30">
         <v>290</v>
       </c>
-      <c r="K3" s="14">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30">
+        <f>K5</f>
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10">
-        <v>977817969</v>
-      </c>
-      <c r="F4" s="10" t="s">
+    <row r="6" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1666291994</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H6" s="28">
         <v>10111</v>
       </c>
-      <c r="H4" s="13">
-        <v>40882</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="I6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="27">
         <v>1</v>
       </c>
-      <c r="J4" s="14">
-        <v>290</v>
-      </c>
-      <c r="K4" s="14">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="K6" s="30">
+        <v>1260</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30">
+        <f>K6</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="27">
+        <v>919991919</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H7" s="28">
         <v>10111</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="I7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="27">
         <v>1</v>
       </c>
-      <c r="J5" s="14">
-        <v>290</v>
-      </c>
-      <c r="K5" s="14">
-        <f>J5</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1666291994</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="K7" s="30">
+        <v>1260</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30">
+        <f>K7</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="27">
+        <v>936396789</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H8" s="28">
+        <v>10411</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1</v>
+      </c>
+      <c r="K8" s="30">
+        <v>710</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30">
+        <f>K8</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="33">
+        <v>908252249</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="28">
         <v>10111</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="I9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="27">
         <v>1</v>
       </c>
-      <c r="J6" s="14">
-        <v>1260</v>
-      </c>
-      <c r="K6" s="14">
-        <f>J6</f>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="10">
-        <v>919991919</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="12">
-        <v>10111</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1260</v>
-      </c>
-      <c r="K7" s="14">
-        <f>J7</f>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="10">
-        <v>936396789</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="12">
-        <v>10411</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <v>710</v>
-      </c>
-      <c r="K8" s="14">
-        <f>J8</f>
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="15">
-        <v>908252249</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12">
-        <v>10111</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="K9" s="30">
         <v>1160</v>
       </c>
-      <c r="K9" s="14">
-        <f>J9</f>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30">
+        <f>K9</f>
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="J10" s="23" t="s">
+    <row r="10" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="K10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="22">
-        <f>SUM(K3:K9)</f>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19">
+        <f>SUM(M3:M9)</f>
         <v>5260</v>
       </c>
     </row>
@@ -922,13 +1040,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -938,7 +1056,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -994,19 +1112,19 @@
       <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>10111</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>40549</v>
       </c>
       <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>550</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f>J3</f>
         <v>550</v>
       </c>
@@ -1028,19 +1146,19 @@
       <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>10411</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>40580</v>
       </c>
       <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>1019</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>J4</f>
         <v>1019</v>
       </c>

--- a/trunk/Documents/Thông tin bán hàng/ban hang.xlsx
+++ b/trunk/Documents/Thông tin bán hàng/ban hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="052011" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>THÔNG TIN BÁN HÀNG THÁNG 05 NĂM 2011</t>
   </si>
@@ -171,25 +171,25 @@
     <t>B0002</t>
   </si>
   <si>
-    <t>B0003</t>
-  </si>
-  <si>
     <t>B0004</t>
   </si>
   <si>
     <t>B0005</t>
   </si>
   <si>
-    <t>B0006</t>
-  </si>
-  <si>
-    <t>B0007</t>
-  </si>
-  <si>
     <t>Giá mua</t>
   </si>
   <si>
     <t>Lợi nhuận</t>
+  </si>
+  <si>
+    <t>M0002</t>
+  </si>
+  <si>
+    <t>M0004</t>
+  </si>
+  <si>
+    <t>M0005</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
     <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +261,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -349,7 +369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -368,6 +387,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,26 +692,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -738,283 +759,331 @@
         <v>5</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="N2" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>937186457</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <v>10111</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>40852</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <v>1</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <v>290</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="29">
         <v>243.55500000000001</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="29">
         <v>290</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="N3" s="29">
+        <f>M3-L3</f>
+        <v>46.444999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>977817969</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>10111</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <v>40882</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>1</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>290</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30">
+      <c r="L4" s="29">
+        <v>243.55500000000001</v>
+      </c>
+      <c r="M4" s="29">
         <v>290</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="N4" s="29">
+        <f t="shared" ref="N4:N9" si="0">M4-L4</f>
+        <v>46.444999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>10111</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <v>1</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <v>290</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30">
+      <c r="L5" s="29">
+        <v>243.55500000000001</v>
+      </c>
+      <c r="M5" s="29">
         <f>K5</f>
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="32" t="s">
+      <c r="N5" s="29">
+        <f t="shared" si="0"/>
+        <v>46.444999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>1666291994</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>10111</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>1</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>1260</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30">
+      <c r="L6" s="34">
+        <v>1136</v>
+      </c>
+      <c r="M6" s="29">
         <f>K6</f>
         <v>1260</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32" t="s">
+      <c r="N6" s="29">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>919991919</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>10111</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>1</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>1260</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30">
+      <c r="L7" s="34">
+        <v>1136</v>
+      </c>
+      <c r="M7" s="29">
         <f>K7</f>
         <v>1260</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27" t="s">
+      <c r="N7" s="29">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>936396789</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>10411</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <v>1</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>710</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30">
+      <c r="L8" s="29">
+        <v>600</v>
+      </c>
+      <c r="M8" s="29">
         <f>K8</f>
         <v>710</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
+      <c r="N8" s="29">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>908252249</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>10111</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>1</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>1160</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30">
+      <c r="L9" s="29">
+        <v>968</v>
+      </c>
+      <c r="M9" s="29">
         <f>K9</f>
         <v>1160</v>
+      </c>
+      <c r="N9" s="29">
+        <f t="shared" si="0"/>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
@@ -1025,6 +1094,10 @@
       <c r="M10" s="19">
         <f>SUM(M3:M9)</f>
         <v>5260</v>
+      </c>
+      <c r="N10" s="35">
+        <f>SUM(N3:N9)</f>
+        <v>689.33500000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1040,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1169,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
@@ -1130,7 +1205,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
